--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1935.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1935.xlsx
@@ -354,7 +354,7 @@
         <v>2.603264068859725</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.750248221925641</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1935.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1935.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158994685838087</v>
+        <v>0.3691694736480713</v>
       </c>
       <c r="B1">
-        <v>2.603264068859725</v>
+        <v>0.2613443732261658</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.4093986749649048</v>
       </c>
       <c r="D1">
-        <v>1.750248221925641</v>
+        <v>4.563246726989746</v>
       </c>
       <c r="E1">
-        <v>1.205666273624043</v>
+        <v>2.29588770866394</v>
       </c>
     </row>
   </sheetData>
